--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hp-Itgam.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hp-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Hp</t>
   </si>
   <si>
     <t>Itgam</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.5255252542207</v>
+        <v>0.02140866666666667</v>
       </c>
       <c r="H2">
-        <v>2.5255252542207</v>
+        <v>0.06422600000000001</v>
       </c>
       <c r="I2">
-        <v>0.02926219560030908</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="J2">
-        <v>0.02926219560030908</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>82.353359479971</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N2">
-        <v>82.353359479971</v>
+        <v>0.047147</v>
       </c>
       <c r="O2">
-        <v>0.2618053948890064</v>
+        <v>4.352450124452221E-05</v>
       </c>
       <c r="P2">
-        <v>0.2618053948890064</v>
+        <v>4.352450124452222E-05</v>
       </c>
       <c r="Q2">
-        <v>207.9854891365825</v>
+        <v>0.0003364514691111112</v>
       </c>
       <c r="R2">
-        <v>207.9854891365825</v>
+        <v>0.003028063222000001</v>
       </c>
       <c r="S2">
-        <v>0.007661000674458267</v>
+        <v>8.007856638377817E-09</v>
       </c>
       <c r="T2">
-        <v>0.007661000674458267</v>
+        <v>8.007856638377817E-09</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.5255252542207</v>
+        <v>0.02140866666666667</v>
       </c>
       <c r="H3">
-        <v>2.5255252542207</v>
+        <v>0.06422600000000001</v>
       </c>
       <c r="I3">
-        <v>0.02926219560030908</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="J3">
-        <v>0.02926219560030908</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>75.7452174093864</v>
+        <v>121.5707266666667</v>
       </c>
       <c r="N3">
-        <v>75.7452174093864</v>
+        <v>364.71218</v>
       </c>
       <c r="O3">
-        <v>0.2407977850574632</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="P3">
-        <v>0.2407977850574632</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="Q3">
-        <v>191.2964594538428</v>
+        <v>2.602667163631111</v>
       </c>
       <c r="R3">
-        <v>191.2964594538428</v>
+        <v>23.42400447268</v>
       </c>
       <c r="S3">
-        <v>0.007046271886472671</v>
+        <v>6.194588948841381E-05</v>
       </c>
       <c r="T3">
-        <v>0.007046271886472671</v>
+        <v>6.19458894884138E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.5255252542207</v>
+        <v>0.02140866666666667</v>
       </c>
       <c r="H4">
-        <v>2.5255252542207</v>
+        <v>0.06422600000000001</v>
       </c>
       <c r="I4">
-        <v>0.02926219560030908</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="J4">
-        <v>0.02926219560030908</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>156.460867215624</v>
+        <v>80.471891</v>
       </c>
       <c r="N4">
-        <v>156.460867215624</v>
+        <v>241.415673</v>
       </c>
       <c r="O4">
-        <v>0.4973968200535305</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="P4">
-        <v>0.4973968200535305</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="Q4">
-        <v>395.14587145033</v>
+        <v>1.722795890455334</v>
       </c>
       <c r="R4">
-        <v>395.14587145033</v>
+        <v>15.505163014098</v>
       </c>
       <c r="S4">
-        <v>0.01455492303937815</v>
+        <v>4.10041381135915E-05</v>
       </c>
       <c r="T4">
-        <v>0.01455492303937815</v>
+        <v>4.10041381135915E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.45144689333615</v>
+        <v>0.02140866666666667</v>
       </c>
       <c r="H5">
-        <v>5.45144689333615</v>
+        <v>0.06422600000000001</v>
       </c>
       <c r="I5">
-        <v>0.06316361518496204</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="J5">
-        <v>0.06316361518496204</v>
+        <v>0.0001839850293375998</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.353359479971</v>
+        <v>159.017985</v>
       </c>
       <c r="N5">
-        <v>82.353359479971</v>
+        <v>477.053955</v>
       </c>
       <c r="O5">
-        <v>0.2618053948890064</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="P5">
-        <v>0.2618053948890064</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="Q5">
-        <v>448.9449656928831</v>
+        <v>3.40436303487</v>
       </c>
       <c r="R5">
-        <v>448.9449656928831</v>
+        <v>30.63926731383</v>
       </c>
       <c r="S5">
-        <v>0.01653657521611623</v>
+        <v>8.102699387895608E-05</v>
       </c>
       <c r="T5">
-        <v>0.01653657521611623</v>
+        <v>8.102699387895608E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.45144689333615</v>
+        <v>2.726732</v>
       </c>
       <c r="H6">
-        <v>5.45144689333615</v>
+        <v>8.180196</v>
       </c>
       <c r="I6">
-        <v>0.06316361518496204</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="J6">
-        <v>0.06316361518496204</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>75.7452174093864</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N6">
-        <v>75.7452174093864</v>
+        <v>0.047147</v>
       </c>
       <c r="O6">
-        <v>0.2407977850574632</v>
+        <v>4.352450124452221E-05</v>
       </c>
       <c r="P6">
-        <v>0.2407977850574632</v>
+        <v>4.352450124452222E-05</v>
       </c>
       <c r="Q6">
-        <v>412.9210301314707</v>
+        <v>0.04285241120133333</v>
       </c>
       <c r="R6">
-        <v>412.9210301314707</v>
+        <v>0.385671700812</v>
       </c>
       <c r="S6">
-        <v>0.0152096586327608</v>
+        <v>1.019927083141277E-06</v>
       </c>
       <c r="T6">
-        <v>0.0152096586327608</v>
+        <v>1.019927083141277E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.45144689333615</v>
+        <v>2.726732</v>
       </c>
       <c r="H7">
-        <v>5.45144689333615</v>
+        <v>8.180196</v>
       </c>
       <c r="I7">
-        <v>0.06316361518496204</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="J7">
-        <v>0.06316361518496204</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>156.460867215624</v>
+        <v>121.5707266666667</v>
       </c>
       <c r="N7">
-        <v>156.460867215624</v>
+        <v>364.71218</v>
       </c>
       <c r="O7">
-        <v>0.4973968200535305</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="P7">
-        <v>0.4973968200535305</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="Q7">
-        <v>852.9381085112933</v>
+        <v>331.4907906652533</v>
       </c>
       <c r="R7">
-        <v>852.9381085112933</v>
+        <v>2983.41711598728</v>
       </c>
       <c r="S7">
-        <v>0.03141738133608501</v>
+        <v>0.00788978789601664</v>
       </c>
       <c r="T7">
-        <v>0.03141738133608501</v>
+        <v>0.007889787896016638</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>78.3297865357876</v>
+        <v>2.726732</v>
       </c>
       <c r="H8">
-        <v>78.3297865357876</v>
+        <v>8.180196</v>
       </c>
       <c r="I8">
-        <v>0.9075741892147289</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="J8">
-        <v>0.9075741892147289</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.353359479971</v>
+        <v>80.471891</v>
       </c>
       <c r="N8">
-        <v>82.353359479971</v>
+        <v>241.415673</v>
       </c>
       <c r="O8">
-        <v>0.2618053948890064</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="P8">
-        <v>0.2618053948890064</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="Q8">
-        <v>6450.721068571109</v>
+        <v>219.425280290212</v>
       </c>
       <c r="R8">
-        <v>6450.721068571109</v>
+        <v>1974.827522611908</v>
       </c>
       <c r="S8">
-        <v>0.2376078189984319</v>
+        <v>0.005222524936633898</v>
       </c>
       <c r="T8">
-        <v>0.2376078189984319</v>
+        <v>0.005222524936633897</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>78.3297865357876</v>
+        <v>2.726732</v>
       </c>
       <c r="H9">
-        <v>78.3297865357876</v>
+        <v>8.180196</v>
       </c>
       <c r="I9">
-        <v>0.9075741892147289</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="J9">
-        <v>0.9075741892147289</v>
+        <v>0.02343340081971968</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>75.7452174093864</v>
+        <v>159.017985</v>
       </c>
       <c r="N9">
-        <v>75.7452174093864</v>
+        <v>477.053955</v>
       </c>
       <c r="O9">
-        <v>0.2407977850574632</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="P9">
-        <v>0.2407977850574632</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="Q9">
-        <v>5933.10671078406</v>
+        <v>433.59942827502</v>
       </c>
       <c r="R9">
-        <v>5933.10671078406</v>
+        <v>3902.39485447518</v>
       </c>
       <c r="S9">
-        <v>0.2185418545382297</v>
+        <v>0.010320068059986</v>
       </c>
       <c r="T9">
-        <v>0.2185418545382297</v>
+        <v>0.010320068059986</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>20.85570133333333</v>
+      </c>
+      <c r="H10">
+        <v>62.567104</v>
+      </c>
+      <c r="I10">
+        <v>0.1792328724349742</v>
+      </c>
+      <c r="J10">
+        <v>0.1792328724349742</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.047147</v>
+      </c>
+      <c r="O10">
+        <v>4.352450124452221E-05</v>
+      </c>
+      <c r="P10">
+        <v>4.352450124452222E-05</v>
+      </c>
+      <c r="Q10">
+        <v>0.3277612502542222</v>
+      </c>
+      <c r="R10">
+        <v>2.949851252288</v>
+      </c>
+      <c r="S10">
+        <v>7.801021379355328E-06</v>
+      </c>
+      <c r="T10">
+        <v>7.801021379355328E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>20.85570133333333</v>
+      </c>
+      <c r="H11">
+        <v>62.567104</v>
+      </c>
+      <c r="I11">
+        <v>0.1792328724349742</v>
+      </c>
+      <c r="J11">
+        <v>0.1792328724349742</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>121.5707266666667</v>
+      </c>
+      <c r="N11">
+        <v>364.71218</v>
+      </c>
+      <c r="O11">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="P11">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="Q11">
+        <v>2535.442766236302</v>
+      </c>
+      <c r="R11">
+        <v>22818.98489612672</v>
+      </c>
+      <c r="S11">
+        <v>0.06034588655675416</v>
+      </c>
+      <c r="T11">
+        <v>0.06034588655675416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>20.85570133333333</v>
+      </c>
+      <c r="H12">
+        <v>62.567104</v>
+      </c>
+      <c r="I12">
+        <v>0.1792328724349742</v>
+      </c>
+      <c r="J12">
+        <v>0.1792328724349742</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>80.471891</v>
+      </c>
+      <c r="N12">
+        <v>241.415673</v>
+      </c>
+      <c r="O12">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="P12">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="Q12">
+        <v>1678.297724424555</v>
+      </c>
+      <c r="R12">
+        <v>15104.67951982099</v>
+      </c>
+      <c r="S12">
+        <v>0.03994504054095604</v>
+      </c>
+      <c r="T12">
+        <v>0.03994504054095604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>20.85570133333333</v>
+      </c>
+      <c r="H13">
+        <v>62.567104</v>
+      </c>
+      <c r="I13">
+        <v>0.1792328724349742</v>
+      </c>
+      <c r="J13">
+        <v>0.1792328724349742</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>159.017985</v>
+      </c>
+      <c r="N13">
+        <v>477.053955</v>
+      </c>
+      <c r="O13">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="P13">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="Q13">
+        <v>3316.431601788479</v>
+      </c>
+      <c r="R13">
+        <v>29847.88441609632</v>
+      </c>
+      <c r="S13">
+        <v>0.07893414431588466</v>
+      </c>
+      <c r="T13">
+        <v>0.07893414431588466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>9.404539666666667</v>
+      </c>
+      <c r="H14">
+        <v>28.213619</v>
+      </c>
+      <c r="I14">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="J14">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.047147</v>
+      </c>
+      <c r="O14">
+        <v>4.352450124452221E-05</v>
+      </c>
+      <c r="P14">
+        <v>4.352450124452222E-05</v>
+      </c>
+      <c r="Q14">
+        <v>0.1477986105547778</v>
+      </c>
+      <c r="R14">
+        <v>1.330187494993</v>
+      </c>
+      <c r="S14">
+        <v>3.517743845199958E-06</v>
+      </c>
+      <c r="T14">
+        <v>3.517743845199959E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>78.3297865357876</v>
-      </c>
-      <c r="H10">
-        <v>78.3297865357876</v>
-      </c>
-      <c r="I10">
-        <v>0.9075741892147289</v>
-      </c>
-      <c r="J10">
-        <v>0.9075741892147289</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>156.460867215624</v>
-      </c>
-      <c r="N10">
-        <v>156.460867215624</v>
-      </c>
-      <c r="O10">
-        <v>0.4973968200535305</v>
-      </c>
-      <c r="P10">
-        <v>0.4973968200535305</v>
-      </c>
-      <c r="Q10">
-        <v>12255.54633020404</v>
-      </c>
-      <c r="R10">
-        <v>12255.54633020404</v>
-      </c>
-      <c r="S10">
-        <v>0.4514245156780674</v>
-      </c>
-      <c r="T10">
-        <v>0.4514245156780674</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>9.404539666666667</v>
+      </c>
+      <c r="H15">
+        <v>28.213619</v>
+      </c>
+      <c r="I15">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="J15">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>121.5707266666667</v>
+      </c>
+      <c r="N15">
+        <v>364.71218</v>
+      </c>
+      <c r="O15">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="P15">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="Q15">
+        <v>1143.316721242158</v>
+      </c>
+      <c r="R15">
+        <v>10289.85049117942</v>
+      </c>
+      <c r="S15">
+        <v>0.0272119970828358</v>
+      </c>
+      <c r="T15">
+        <v>0.0272119970828358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9.404539666666667</v>
+      </c>
+      <c r="H16">
+        <v>28.213619</v>
+      </c>
+      <c r="I16">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="J16">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>80.471891</v>
+      </c>
+      <c r="N16">
+        <v>241.415673</v>
+      </c>
+      <c r="O16">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="P16">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="Q16">
+        <v>756.8010909611763</v>
+      </c>
+      <c r="R16">
+        <v>6811.209818650587</v>
+      </c>
+      <c r="S16">
+        <v>0.01801256703142418</v>
+      </c>
+      <c r="T16">
+        <v>0.01801256703142418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>9.404539666666667</v>
+      </c>
+      <c r="H17">
+        <v>28.213619</v>
+      </c>
+      <c r="I17">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="J17">
+        <v>0.08082215176773989</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>159.017985</v>
+      </c>
+      <c r="N17">
+        <v>477.053955</v>
+      </c>
+      <c r="O17">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="P17">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="Q17">
+        <v>1495.490947645905</v>
+      </c>
+      <c r="R17">
+        <v>13459.41852881314</v>
+      </c>
+      <c r="S17">
+        <v>0.03559406990963471</v>
+      </c>
+      <c r="T17">
+        <v>0.03559406990963471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>83.30412799999999</v>
+      </c>
+      <c r="H18">
+        <v>249.912384</v>
+      </c>
+      <c r="I18">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="J18">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.047147</v>
+      </c>
+      <c r="O18">
+        <v>4.352450124452221E-05</v>
+      </c>
+      <c r="P18">
+        <v>4.352450124452222E-05</v>
+      </c>
+      <c r="Q18">
+        <v>1.309179907605333</v>
+      </c>
+      <c r="R18">
+        <v>11.782619168448</v>
+      </c>
+      <c r="S18">
+        <v>3.115969456648749E-05</v>
+      </c>
+      <c r="T18">
+        <v>3.11596945664875E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>83.30412799999999</v>
+      </c>
+      <c r="H19">
+        <v>249.912384</v>
+      </c>
+      <c r="I19">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="J19">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>121.5707266666667</v>
+      </c>
+      <c r="N19">
+        <v>364.71218</v>
+      </c>
+      <c r="O19">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="P19">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="Q19">
+        <v>10127.34337529301</v>
+      </c>
+      <c r="R19">
+        <v>91146.09037763711</v>
+      </c>
+      <c r="S19">
+        <v>0.2410401538481305</v>
+      </c>
+      <c r="T19">
+        <v>0.2410401538481305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>83.30412799999999</v>
+      </c>
+      <c r="H20">
+        <v>249.912384</v>
+      </c>
+      <c r="I20">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="J20">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>80.471891</v>
+      </c>
+      <c r="N20">
+        <v>241.415673</v>
+      </c>
+      <c r="O20">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="P20">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="Q20">
+        <v>6703.640708266047</v>
+      </c>
+      <c r="R20">
+        <v>60332.76637439443</v>
+      </c>
+      <c r="S20">
+        <v>0.1595528588084718</v>
+      </c>
+      <c r="T20">
+        <v>0.1595528588084718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>83.30412799999999</v>
+      </c>
+      <c r="H21">
+        <v>249.912384</v>
+      </c>
+      <c r="I21">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="J21">
+        <v>0.7159115825688894</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>159.017985</v>
+      </c>
+      <c r="N21">
+        <v>477.053955</v>
+      </c>
+      <c r="O21">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="P21">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="Q21">
+        <v>13246.85457674208</v>
+      </c>
+      <c r="R21">
+        <v>119221.6911906787</v>
+      </c>
+      <c r="S21">
+        <v>0.3152874102177205</v>
+      </c>
+      <c r="T21">
+        <v>0.3152874102177205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.048407</v>
+      </c>
+      <c r="H22">
+        <v>0.145221</v>
+      </c>
+      <c r="I22">
+        <v>0.0004160073793391396</v>
+      </c>
+      <c r="J22">
+        <v>0.0004160073793391395</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.047147</v>
+      </c>
+      <c r="O22">
+        <v>4.352450124452221E-05</v>
+      </c>
+      <c r="P22">
+        <v>4.352450124452222E-05</v>
+      </c>
+      <c r="Q22">
+        <v>0.0007607482763333333</v>
+      </c>
+      <c r="R22">
+        <v>0.006846734487</v>
+      </c>
+      <c r="S22">
+        <v>1.81065136997768E-08</v>
+      </c>
+      <c r="T22">
+        <v>1.81065136997768E-08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.048407</v>
+      </c>
+      <c r="H23">
+        <v>0.145221</v>
+      </c>
+      <c r="I23">
+        <v>0.0004160073793391396</v>
+      </c>
+      <c r="J23">
+        <v>0.0004160073793391395</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>121.5707266666667</v>
+      </c>
+      <c r="N23">
+        <v>364.71218</v>
+      </c>
+      <c r="O23">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="P23">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="Q23">
+        <v>5.884874165753333</v>
+      </c>
+      <c r="R23">
+        <v>52.96386749177999</v>
+      </c>
+      <c r="S23">
+        <v>0.0001400654566281092</v>
+      </c>
+      <c r="T23">
+        <v>0.0001400654566281092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.048407</v>
+      </c>
+      <c r="H24">
+        <v>0.145221</v>
+      </c>
+      <c r="I24">
+        <v>0.0004160073793391396</v>
+      </c>
+      <c r="J24">
+        <v>0.0004160073793391395</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>80.471891</v>
+      </c>
+      <c r="N24">
+        <v>241.415673</v>
+      </c>
+      <c r="O24">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="P24">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="Q24">
+        <v>3.895402827637</v>
+      </c>
+      <c r="R24">
+        <v>35.058625448733</v>
+      </c>
+      <c r="S24">
+        <v>9.271419582402565E-05</v>
+      </c>
+      <c r="T24">
+        <v>9.271419582402564E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.048407</v>
+      </c>
+      <c r="H25">
+        <v>0.145221</v>
+      </c>
+      <c r="I25">
+        <v>0.0004160073793391396</v>
+      </c>
+      <c r="J25">
+        <v>0.0004160073793391395</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>159.017985</v>
+      </c>
+      <c r="N25">
+        <v>477.053955</v>
+      </c>
+      <c r="O25">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="P25">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="Q25">
+        <v>7.697583599894999</v>
+      </c>
+      <c r="R25">
+        <v>69.27825239905499</v>
+      </c>
+      <c r="S25">
+        <v>0.0001832096203733049</v>
+      </c>
+      <c r="T25">
+        <v>0.0001832096203733049</v>
       </c>
     </row>
   </sheetData>
